--- a/biology/Botanique/Ivraie/Ivraie.xlsx
+++ b/biology/Botanique/Ivraie/Ivraie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lolium
-L'ivraie, Lolium, ou encore anciennement Zizanie[1], est un genre de poacées (graminée) sauvage ou cultivée comme plante fourragère. Elle est originaire des régions tempérées chaudes d'Eurasie. Certaines espèces sont considérées comme des adventices.
+L'ivraie, Lolium, ou encore anciennement Zizanie, est un genre de poacées (graminée) sauvage ou cultivée comme plante fourragère. Elle est originaire des régions tempérées chaudes d'Eurasie. Certaines espèces sont considérées comme des adventices.
 Il existe une trentaine d'espèces du genre Lolium, appelé en anglais Ryegrass, d'où le terme de « ray-gras » ou « ray grass » sous lequel sont désignées en français les espèces les plus couramment cultivées.
 Les principales espèces cultivées sont les suivantes :
 Lolium multiflorum, ivraie multiflore ou ray-grass d'Italie ,
 Lolium perenne, ivraie vivace ou ray-grass anglais.
-On a longtemps cru que l'ivraie enivrante, Lolium temulentum, était la seule espèce d'ivraie dont les graines étaient toxiques à hautes doses, induisant à faible dose des effets comparables à l'ivresse. Or la découverte d'un champignon endophyte, vivant en parfaite symbiose avec Lolium / Lolium temulentum par P. Guérin[2] fut vérifiée, confirmée en tant qu'infection artificielle et fait régulièrement l'objet d'études approfondies[3],[4].
+On a longtemps cru que l'ivraie enivrante, Lolium temulentum, était la seule espèce d'ivraie dont les graines étaient toxiques à hautes doses, induisant à faible dose des effets comparables à l'ivresse. Or la découverte d'un champignon endophyte, vivant en parfaite symbiose avec Lolium / Lolium temulentum par P. Guérin fut vérifiée, confirmée en tant qu'infection artificielle et fait régulièrement l'objet d'études approfondies,.
 </t>
         </is>
       </c>
